--- a/ANOVA.xlsx
+++ b/ANOVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/tarek_carls_unisg_ch/Documents/QAF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/tarek_carls_unisg_ch/Documents/QAF/QAF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8C64B7-829C-4FEC-8499-6E7159168E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0C8C64B7-829C-4FEC-8499-6E7159168E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F23A5080-405A-4162-B714-29222917DBEB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{A6D6FD58-BABA-4C76-B2FD-B993785552B7}"/>
+    <workbookView xWindow="10390" yWindow="-4640" windowWidth="38620" windowHeight="21220" xr2:uid="{A6D6FD58-BABA-4C76-B2FD-B993785552B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1011,6 +1011,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07c8a24f-8b40-44ca-950f-ae5db2c4fa23">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="71d337dc-809a-4269-a690-d6cd31b4acd0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"UNISG Excel hoch","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010034C2EED3AEDAB24AB48AF05A7A255DF4" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="274d9017fadbcc8b67afbe4b22a55600">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07c8a24f-8b40-44ca-950f-ae5db2c4fa23" xmlns:ns3="71d337dc-809a-4269-a690-d6cd31b4acd0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b58614a3de855f8a451fa93eb2e43b4" ns2:_="" ns3:_="">
     <xsd:import namespace="07c8a24f-8b40-44ca-950f-ae5db2c4fa23"/>
@@ -1259,25 +1278,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"UNISG Excel hoch","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07c8a24f-8b40-44ca-950f-ae5db2c4fa23">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="71d337dc-809a-4269-a690-d6cd31b4acd0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1288,6 +1288,29 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0002BB93-0A85-478E-910B-252B9B8A5C15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="07c8a24f-8b40-44ca-950f-ae5db2c4fa23"/>
+    <ds:schemaRef ds:uri="71d337dc-809a-4269-a690-d6cd31b4acd0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A4F7B3D-00BA-4EC3-B5E5-E2B2297DE47E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62C84976-48B0-49F1-88C9-1A6F278B1636}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F268B634-479A-4DE9-9C23-26EB34AB525F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1306,29 +1329,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62C84976-48B0-49F1-88C9-1A6F278B1636}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A4F7B3D-00BA-4EC3-B5E5-E2B2297DE47E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0002BB93-0A85-478E-910B-252B9B8A5C15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="07c8a24f-8b40-44ca-950f-ae5db2c4fa23"/>
-    <ds:schemaRef ds:uri="71d337dc-809a-4269-a690-d6cd31b4acd0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0B089E-410A-4C91-B0A8-BAA2927F78EA}">
   <ds:schemaRefs>
